--- a/biology/Médecine/Yeshi_Donden/Yeshi_Donden.xlsx
+++ b/biology/Médecine/Yeshi_Donden/Yeshi_Donden.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Yeshi Donden ou Yeshi Dhonden (tibétain : ཡེ་ཤེས་དོན་ལྡན, Wylie : ye shes don ldan), né le 15 mai 1927 à Namro, un village du Tibet central du district de Lhoga et mort le 26 novembre 2019 à McLeod Ganj, un quartier de Dharamsala en Inde[1], est un docteur en médecine tibétaine traditionnelle qui reçut le titre de médecin personnel du dalaï-lama.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Yeshi Donden ou Yeshi Dhonden (tibétain : ཡེ་ཤེས་དོན་ལྡན, Wylie : ye shes don ldan), né le 15 mai 1927 à Namro, un village du Tibet central du district de Lhoga et mort le 26 novembre 2019 à McLeod Ganj, un quartier de Dharamsala en Inde, est un docteur en médecine tibétaine traditionnelle qui reçut le titre de médecin personnel du dalaï-lama.
 Il fonde l'Institut de médecine et d'astrologie tibétaine à Dharamsala en 1961 et en est directeur jusqu'en 1966 avant de fonder dans la même ville une clinique privée en 1969.
 </t>
         </is>
@@ -512,13 +524,15 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Yeshi Donden est né le 15 mai 1927 à Namro, un village au sud du Tsangpo, à une journée de Lhassa, dans une famille de paysans aisés[2], descendant de Ngok Chöku Dorje, un lama érudit nyingma du XIIe siècle qui devint disciple du maître kagyu Marpa.
-À 6 ans, il entre au monastère de Sungrab Ling[3], et à 11 ans, il rejoint l’Institut Chakpori de médecine tibétaine où il fait preuve de mémorisation dans son étude des quatre tantra, il eut pour professeur Khyenrab Norbu[4].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Yeshi Donden est né le 15 mai 1927 à Namro, un village au sud du Tsangpo, à une journée de Lhassa, dans une famille de paysans aisés, descendant de Ngok Chöku Dorje, un lama érudit nyingma du XIIe siècle qui devint disciple du maître kagyu Marpa.
+À 6 ans, il entre au monastère de Sungrab Ling, et à 11 ans, il rejoint l’Institut Chakpori de médecine tibétaine où il fait preuve de mémorisation dans son étude des quatre tantra, il eut pour professeur Khyenrab Norbu.
 Il a suivi des études de médecines à l’Institut Chakpori de médecine tibétaine à Lhassa durant 9 ans. À 20 ans, il réussit brillamment ses examens, reconnu comme le meilleur de sa promotion, il est nommé médecin personnel du dalaï-lama, un titre honorifique.
-À partir de 1951, le Dr Donden exerce dans sa région natale, où il devient réputé pour sa grande efficacité après qu'il eut traité une épidémie de grippe à la frontière tibéto-bhoutnaise[5]. En 1959, quand le dalaï-lama s’exile, il l’accompagne pour prendre en charge les réfugiés tibétains en Inde. Il fonde l'Institut de médecine et d'astrologie tibétaine à Dharamsala avant de fonder une clinique privée en 1969. Il poursuit ses activités de thérapeute à Dharamsala en Inde et voyage en Occident où il donne des conférences sur la médecine tibétaine traditionnelle, notamment à l’Université de Virginie aux États-Unis[6].
-Considéré comme une icône de la médecine tibétaine, des milliers de patients le consultent à McLeod Ganj[7] et est réputé pour ses contributions au traitement du cancer[8],[9],[10].
+À partir de 1951, le Dr Donden exerce dans sa région natale, où il devient réputé pour sa grande efficacité après qu'il eut traité une épidémie de grippe à la frontière tibéto-bhoutnaise. En 1959, quand le dalaï-lama s’exile, il l’accompagne pour prendre en charge les réfugiés tibétains en Inde. Il fonde l'Institut de médecine et d'astrologie tibétaine à Dharamsala avant de fonder une clinique privée en 1969. Il poursuit ses activités de thérapeute à Dharamsala en Inde et voyage en Occident où il donne des conférences sur la médecine tibétaine traditionnelle, notamment à l’Université de Virginie aux États-Unis.
+Considéré comme une icône de la médecine tibétaine, des milliers de patients le consultent à McLeod Ganj et est réputé pour ses contributions au traitement du cancer.
 Il a officiellement pris sa retraite de son cabinet médical en avril 2019 en raison de la dégradation de son état de santé.
 </t>
         </is>
@@ -548,11 +562,13 @@
           <t>Hommages et distinctions</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>1987, Manrampa Chewa, Men-Tsee-Khang[11]
-2012, Yuthok Award, Central Council of Tibetan Medicine (Dharamsala)[11]
-En 2018, il reçoit le Padma Shri de médecine[12],[13] du président de l'Inde Ram Nath Kovind le 20 mars au Rashtrapati Bhavan.</t>
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>1987, Manrampa Chewa, Men-Tsee-Khang
+2012, Yuthok Award, Central Council of Tibetan Medicine (Dharamsala)
+En 2018, il reçoit le Padma Shri de médecine, du président de l'Inde Ram Nath Kovind le 20 mars au Rashtrapati Bhavan.</t>
         </is>
       </c>
     </row>
@@ -580,7 +596,9 @@
           <t>Ouvrages</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>La santé par l'Équilibre. Traité pratique de médecine tibétaine, Éd. Trédaniel, 2000,  (ISBN 2844451403), (en) Health Through Balance: An Introduction to Tibetan Medicine, avec Jeffrey Hopkins, Motilal Banarsidass Publ., 1997,  (ISBN 812081519X)
 Guérir à la source - La science et la tradition de la médecine tibétaine, Éd. Trédaniel, 2001,  (ISBN 2844452213), (en) Healing from the source: the science and lore of Tibetan medicine avec B. Alan Wallace, Snow Lion Publications, 2000,  (ISBN 1559391480)
@@ -613,7 +631,9 @@
           <t>Articles</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>(en) Gerard N. Burrow, Jeffrey Hopkins, Yeshi Dhonden et Lobsang Dolma, « Goiter in Tibetan Medicine », Yale J Biol Med. 1978, 51 : p. 441–447.
 (en) Sleep and the Inner Landscape, juin - juillet (1983), Tibetan Review
